--- a/上课记录.xlsx
+++ b/上课记录.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\05Code\06CPP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A9F0F-EB2A-4F2F-8536-B962618A3F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="31260" windowHeight="11600"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上课记录" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="126">
   <si>
     <t>日期</t>
   </si>
@@ -386,19 +400,21 @@
   </si>
   <si>
     <t>三下14雪花飘飘，虚拟农场</t>
+  </si>
+  <si>
+    <t>四上09接球比赛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十一课for循环</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,158 +450,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,204 +474,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -799,255 +493,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,62 +539,27 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1400,37 +817,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AN126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AP129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AC104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="53.6826923076923" customWidth="1"/>
-    <col min="3" max="3" width="40.2211538461538" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" customWidth="1"/>
+    <col min="2" max="2" width="53.6328125" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.75" customWidth="1"/>
-    <col min="30" max="31" width="9.25" customWidth="1"/>
+    <col min="29" max="29" width="16.7265625" customWidth="1"/>
+    <col min="30" max="31" width="9.26953125" customWidth="1"/>
     <col min="32" max="32" width="10" customWidth="1"/>
     <col min="33" max="33" width="9" customWidth="1"/>
     <col min="35" max="37" width="10"/>
-    <col min="39" max="40" width="10"/>
+    <col min="39" max="39" width="10"/>
+    <col min="40" max="40" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1551,8 +969,12 @@
       <c r="AN1" s="8">
         <v>43820</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AO1" s="14">
+        <v>43980</v>
+      </c>
+      <c r="AP1" s="13"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1672,7 +1094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:40">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -1789,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:40">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -1906,7 +1328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:40">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -2023,7 +1445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:40">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +1506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2204,7 +1626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:40">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -2321,7 +1743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:40">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -2438,7 +1860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:40">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -2555,7 +1977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:30">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>26</v>
       </c>
@@ -2630,7 +2052,7 @@
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
     </row>
-    <row r="12" spans="2:30">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -2705,424 +2127,424 @@
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
     </row>
-    <row r="14" ht="18.8" spans="25:25">
+    <row r="14" spans="1:42" ht="19.5" x14ac:dyDescent="0.25">
       <c r="Y14" s="2"/>
     </row>
-    <row r="16" spans="25:25">
+    <row r="16" spans="1:42" ht="16.5" x14ac:dyDescent="0.25">
       <c r="Y16" s="10"/>
     </row>
-    <row r="17" ht="18.8" spans="2:4">
+    <row r="17" spans="1:25" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" ht="18.8" spans="2:25">
+    <row r="18" spans="1:25" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" ht="18.8" spans="2:4">
+    <row r="19" spans="1:25" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="Y20" s="10"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" ht="18.8" spans="1:25">
+    <row r="22" spans="1:25" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>96</v>
       </c>
@@ -3130,27 +2552,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>102</v>
       </c>
@@ -3161,7 +2583,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>105</v>
       </c>
@@ -3169,7 +2591,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>43764</v>
       </c>
@@ -3180,7 +2602,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>105</v>
       </c>
@@ -3188,7 +2610,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>43771</v>
       </c>
@@ -3199,7 +2621,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>105</v>
       </c>
@@ -3207,7 +2629,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>43778</v>
       </c>
@@ -3218,7 +2640,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="2:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>105</v>
       </c>
@@ -3226,7 +2648,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>43785</v>
       </c>
@@ -3234,7 +2656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>43792</v>
       </c>
@@ -3245,7 +2667,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="2:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>105</v>
       </c>
@@ -3253,7 +2675,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>43799</v>
       </c>
@@ -3264,7 +2686,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="2:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>105</v>
       </c>
@@ -3272,7 +2694,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>43806</v>
       </c>
@@ -3283,7 +2705,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="2:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>105</v>
       </c>
@@ -3291,7 +2713,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>43813</v>
       </c>
@@ -3302,7 +2724,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="2:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>105</v>
       </c>
@@ -3310,7 +2732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>43820</v>
       </c>
@@ -3321,7 +2743,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="2:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>122</v>
       </c>
@@ -3329,9 +2751,28 @@
         <v>123</v>
       </c>
     </row>
+    <row r="128" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="11">
+        <v>43980</v>
+      </c>
+      <c r="B128" t="s">
+        <v>122</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>103</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/上课记录.xlsx
+++ b/上课记录.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\05Code\06CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A9F0F-EB2A-4F2F-8536-B962618A3F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10515"/>
   </bookViews>
   <sheets>
     <sheet name="上课记录" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="126">
   <si>
     <t>日期</t>
   </si>
@@ -413,7 +412,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,6 +425,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -434,6 +434,7 @@
       <sz val="13.5"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -441,12 +442,14 @@
       <sz val="13.5"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -465,7 +468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +487,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -499,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -546,6 +555,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,33 +837,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AC104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AH98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C129" sqref="C129"/>
+      <selection pane="bottomRight" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.90625" customWidth="1"/>
-    <col min="2" max="2" width="53.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="53.625" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.7265625" customWidth="1"/>
-    <col min="30" max="31" width="9.26953125" customWidth="1"/>
+    <col min="29" max="29" width="16.75" customWidth="1"/>
+    <col min="30" max="31" width="9.25" customWidth="1"/>
     <col min="32" max="32" width="10" customWidth="1"/>
     <col min="33" max="33" width="9" customWidth="1"/>
     <col min="35" max="37" width="10"/>
     <col min="39" max="39" width="10"/>
-    <col min="40" max="40" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.7265625" customWidth="1"/>
+    <col min="40" max="40" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -974,7 +989,7 @@
       </c>
       <c r="AP1" s="13"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -982,8 +997,8 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <f>COUNTIF(E2:AN2,"课")</f>
-        <v>25</v>
+        <f>COUNTIF(E2:BN2,"课")</f>
+        <v>26</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>6</v>
@@ -1093,14 +1108,17 @@
       <c r="AN2" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="1">
-        <f>COUNTIF(E3:AN3,"课")</f>
-        <v>27</v>
+        <f t="shared" ref="D3:D12" si="0">COUNTIF(E3:BN3,"课")</f>
+        <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>6</v>
@@ -1210,14 +1228,17 @@
       <c r="AN3" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1">
-        <f>COUNTIF(E4:AN4,"课")</f>
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>6</v>
@@ -1327,13 +1348,16 @@
       <c r="AN4" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1">
-        <f>COUNTIF(E5:AN5,"课")</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1444,10 +1468,17 @@
       <c r="AN5" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1505,8 +1536,11 @@
       <c r="AN6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1514,8 +1548,8 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D12" si="0">COUNTIF(E7:AN7,"课")</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>6</v>
@@ -1625,14 +1659,17 @@
       <c r="AN7" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO7" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>6</v>
@@ -1742,8 +1779,11 @@
       <c r="AN8" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO8" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -1859,8 +1899,11 @@
       <c r="AN9" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AO9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -1976,575 +2019,566 @@
       <c r="AN10" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="AO10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="I11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="M11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="7" t="s">
+      <c r="P11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="7" t="s">
+      <c r="R11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="V11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="V11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="I12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="M12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="7" t="s">
+      <c r="P12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U12" s="7" t="s">
+      <c r="R12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-    </row>
-    <row r="14" spans="1:42" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="V12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="20.25" x14ac:dyDescent="0.15">
       <c r="Y14" s="2"/>
     </row>
-    <row r="16" spans="1:42" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="17.25" x14ac:dyDescent="0.15">
       <c r="Y16" s="10"/>
     </row>
-    <row r="17" spans="1:25" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="20.25" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="Y20" s="10"/>
     </row>
-    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
     </row>
-    <row r="74" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>96</v>
       </c>
@@ -2552,27 +2586,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>102</v>
       </c>
@@ -2583,7 +2617,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
         <v>105</v>
       </c>
@@ -2591,7 +2625,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A110" s="11">
         <v>43764</v>
       </c>
@@ -2602,7 +2636,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
         <v>105</v>
       </c>
@@ -2610,7 +2644,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A112" s="11">
         <v>43771</v>
       </c>
@@ -2621,7 +2655,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>105</v>
       </c>
@@ -2629,7 +2663,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A114" s="11">
         <v>43778</v>
       </c>
@@ -2640,7 +2674,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
         <v>105</v>
       </c>
@@ -2648,7 +2682,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A116" s="11">
         <v>43785</v>
       </c>
@@ -2656,7 +2690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A117" s="11">
         <v>43792</v>
       </c>
@@ -2667,7 +2701,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>105</v>
       </c>
@@ -2675,7 +2709,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="12">
         <v>43799</v>
       </c>
@@ -2686,7 +2720,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
         <v>105</v>
       </c>
@@ -2694,7 +2728,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="12">
         <v>43806</v>
       </c>
@@ -2705,7 +2739,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>105</v>
       </c>
@@ -2713,7 +2747,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="12">
         <v>43813</v>
       </c>
@@ -2724,7 +2758,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
         <v>105</v>
       </c>
@@ -2732,7 +2766,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A125" s="11">
         <v>43820</v>
       </c>
@@ -2743,7 +2777,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
         <v>122</v>
       </c>
@@ -2751,7 +2785,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A128" s="11">
         <v>43980</v>
       </c>
@@ -2762,7 +2796,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
         <v>103</v>
       </c>
